--- a/Output.xlsx
+++ b/Output.xlsx
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CS-PE002V-USE1AZ1VNFCVPCP</t>
+          <t>CS-PE001V-USE1AZ1VNFCVPCP</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,15 +493,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CS-PE001V-USE1AZ1VNFCVPCP</t>
+          <t>CS-PE010V-USE1AZ4N003P</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>7.3.3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Registered</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS-PE002V-USE1AZ1VNFCVPCP</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>7.3.26</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">SMU pending:  CSCwa80752 @@ -509,31 +531,9 @@
 </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Unregistered</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CS-PE010V-USE1AZ4N003P</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>7.3.3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Registered</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CS-PE101V-USE1AZ4N003P</t>
+          <t>CS-PE004V-USE1AZ1B315P</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -584,7 +584,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CS-PE004V-USE1AZ1B315P</t>
+          <t>CS-PE101V-USE1AZ4N003P</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
